--- a/solar-panels/modular-panel/DualCell_V2/V2/PCB_ordering_DualCell_v2.xlsx
+++ b/solar-panels/modular-panel/DualCell_V2/V2/PCB_ordering_DualCell_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kame\Documents\GitHub\hw_family_nanopower\solar-panels\modular-panel\DualCell_V2\V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A089452A-0DD9-488A-8D7C-5955A7F874AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E08277-A439-4403-904F-56E5E6E5544B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="1260" windowWidth="23040" windowHeight="14892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB Specifications" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Board Outline</t>
   </si>
   <si>
-    <t>ReadMe.pdf</t>
-  </si>
-  <si>
     <t>9220 Aalborg East</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
   </si>
   <si>
     <t>Files included in data package</t>
-  </si>
-  <si>
-    <t>Stack-up.pdf</t>
   </si>
   <si>
     <t>Panelization</t>
@@ -570,7 +564,13 @@
     <t>KAME</t>
   </si>
   <si>
-    <t>(?) NJB to confirm.</t>
+    <t>108150-01</t>
+  </si>
+  <si>
+    <t>DualCell_V2_PCB.pdf</t>
+  </si>
+  <si>
+    <t>ReadMe.pdf</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1510,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1610,27 +1610,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1638,11 +1638,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1658,7 +1658,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1666,7 +1666,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1678,11 +1678,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2114,8 +2114,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>137160</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>181707</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3119,8 +3119,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>137160</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>185530</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3521,8 +3521,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>137160</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>181707</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4241,8 +4241,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>137160</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>1173</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4576,8 +4576,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>137160</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>1172</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4911,8 +4911,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>137160</xdr:colOff>
-          <xdr:row>56</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>1172</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5305,8 +5305,8 @@
   </sheetPr>
   <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="94" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="96"/>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="97" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="98"/>
       <c r="D3" s="99"/>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="101"/>
       <c r="D4" s="102"/>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="101"/>
       <c r="D5" s="102"/>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="112" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="113"/>
       <c r="D6" s="114"/>
@@ -5382,7 +5382,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5416,33 +5416,33 @@
       <c r="E9" s="104"/>
       <c r="F9" s="105"/>
       <c r="G9" s="57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H9" s="58"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="89"/>
       <c r="C10" s="103" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="103"/>
       <c r="F10" s="64"/>
       <c r="G10" s="59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H10" s="56"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="89"/>
       <c r="C11" s="104" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="104"/>
       <c r="E11" s="104"/>
       <c r="F11" s="105"/>
       <c r="G11" s="57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H11" s="58"/>
     </row>
@@ -5455,14 +5455,14 @@
       <c r="E12" s="103"/>
       <c r="F12" s="64"/>
       <c r="G12" s="59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H12" s="56"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" s="89"/>
       <c r="C13" s="106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="106"/>
       <c r="E13" s="106"/>
@@ -5474,13 +5474,13 @@
       <c r="A14" s="24"/>
       <c r="B14" s="89"/>
       <c r="C14" s="108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="109"/>
       <c r="E14" s="109"/>
       <c r="F14" s="109"/>
       <c r="G14" s="123" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H14" s="67"/>
       <c r="I14" s="24"/>
@@ -5494,13 +5494,13 @@
     <row r="15" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="89"/>
       <c r="C15" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
       <c r="G15" s="60" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="H15" s="61"/>
       <c r="Q15" s="9"/>
@@ -5508,20 +5508,20 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="89"/>
       <c r="C16" s="64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
       <c r="F16" s="59"/>
       <c r="G16" s="59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="56"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="89"/>
       <c r="C17" s="65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -5534,32 +5534,32 @@
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="89"/>
       <c r="C18" s="64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
       <c r="G18" s="110" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H18" s="111"/>
     </row>
     <row r="19" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="90"/>
       <c r="C19" s="65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
       <c r="G19" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H19" s="67"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="118" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="119"/>
       <c r="D20" s="119"/>
@@ -5571,205 +5571,205 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
       <c r="F21" s="59"/>
       <c r="G21" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="56"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
       <c r="F22" s="62"/>
       <c r="G22" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="63"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
       <c r="F23" s="59"/>
       <c r="G23" s="59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H23" s="56"/>
     </row>
     <row r="24" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" s="62"/>
       <c r="E24" s="62"/>
       <c r="F24" s="62"/>
       <c r="G24" s="60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H24" s="61"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
       <c r="G25" s="59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H25" s="56"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H26" s="63"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
       <c r="G27" s="121" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H27" s="122"/>
       <c r="M27" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
       <c r="F28" s="62"/>
       <c r="G28" s="62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H28" s="63"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="59"/>
       <c r="G29" s="121" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H29" s="122"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="62"/>
       <c r="E30" s="62"/>
       <c r="F30" s="62"/>
       <c r="G30" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
       <c r="F31" s="59"/>
       <c r="G31" s="121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H31" s="122"/>
     </row>
     <row r="32" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
       <c r="F32" s="62"/>
       <c r="G32" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
       <c r="G33" s="121" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H33" s="122"/>
     </row>
     <row r="34" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="62"/>
       <c r="E34" s="62"/>
       <c r="F34" s="62"/>
       <c r="G34" s="62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H34" s="63"/>
     </row>
     <row r="35" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
       <c r="G35" s="121" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H35" s="122"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="62"/>
       <c r="E36" s="62"/>
@@ -5780,7 +5780,7 @@
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="128"/>
       <c r="D38" s="128"/>
@@ -5824,7 +5824,7 @@
       <c r="D40" s="133"/>
       <c r="E40" s="133"/>
       <c r="F40" s="19" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>7</v>
@@ -5836,15 +5836,15 @@
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="70"/>
       <c r="E41" s="70"/>
       <c r="F41" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H41" s="40" t="s">
         <v>12</v>
@@ -5853,341 +5853,341 @@
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="72"/>
       <c r="E43" s="72"/>
       <c r="F43" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H43" s="42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="71"/>
       <c r="E44" s="71"/>
       <c r="F44" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="72"/>
       <c r="E45" s="72"/>
       <c r="F45" s="53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H45" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
       <c r="C46" s="71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="71"/>
       <c r="E46" s="71"/>
       <c r="F46" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" s="72"/>
       <c r="E47" s="72"/>
       <c r="F47" s="53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G47" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H47" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
       <c r="C48" s="71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" s="71"/>
       <c r="E48" s="71"/>
       <c r="F48" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H48" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" s="72"/>
       <c r="E49" s="72"/>
       <c r="F49" s="53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G49" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H49" s="42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
       <c r="C50" s="71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
       <c r="F50" s="52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51" s="72"/>
       <c r="E51" s="72"/>
       <c r="F51" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="49" t="s">
-        <v>90</v>
-      </c>
       <c r="H51" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
       <c r="C52" s="71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
       <c r="F52" s="52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="72"/>
       <c r="E53" s="72"/>
       <c r="F53" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H53" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B54" s="3"/>
       <c r="C54" s="71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
       <c r="F54" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" s="41" t="s">
         <v>116</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>118</v>
       </c>
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D55" s="125"/>
       <c r="E55" s="126"/>
       <c r="F55" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" s="42" t="s">
         <v>117</v>
-      </c>
-      <c r="G55" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="H55" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B56" s="3"/>
       <c r="C56" s="71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="124" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" s="125"/>
       <c r="E57" s="126"/>
       <c r="F57" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G57" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H57" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
       <c r="C58" s="71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D58" s="71"/>
       <c r="E58" s="71"/>
       <c r="F58" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G58" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D59" s="72"/>
       <c r="E59" s="72"/>
       <c r="F59" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G59" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H59" s="42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B60" s="3"/>
       <c r="C60" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="83"/>
       <c r="E60" s="84"/>
       <c r="F60" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G60" s="50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I60" s="5"/>
     </row>
@@ -6195,18 +6195,18 @@
       <c r="A61" s="8"/>
       <c r="B61" s="34"/>
       <c r="C61" s="85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D61" s="86"/>
       <c r="E61" s="87"/>
       <c r="F61" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I61" s="36"/>
       <c r="J61" s="8"/>
@@ -6224,7 +6224,7 @@
       <c r="D62" s="83"/>
       <c r="E62" s="84"/>
       <c r="F62" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G62" s="33" t="s">
         <v>9</v>
@@ -6237,30 +6237,30 @@
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B63" s="34"/>
       <c r="C63" s="85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D63" s="86"/>
       <c r="E63" s="87"/>
       <c r="F63" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H63" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
       <c r="C64" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D64" s="83"/>
       <c r="E64" s="84"/>
       <c r="F64" s="33" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="G64" s="51" t="s">
         <v>7</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C65" s="74"/>
       <c r="D65" s="74"/>
@@ -7497,107 +7497,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1099" r:id="rId45" name="Check Box 75">
+            <control shapeId="1094" r:id="rId45" name="Check Box 70">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>175260</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>137160</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1100" r:id="rId46" name="Check Box 76">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>175260</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>137160</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1104" r:id="rId47" name="Check Box 80">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>175260</xdr:colOff>
-                    <xdr:row>61</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>137160</xdr:colOff>
-                    <xdr:row>62</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1108" r:id="rId48" name="Check Box 84">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>175260</xdr:colOff>
-                    <xdr:row>55</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>137160</xdr:colOff>
-                    <xdr:row>56</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1112" r:id="rId49" name="Check Box 88">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>175260</xdr:colOff>
-                    <xdr:row>56</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>137160</xdr:colOff>
-                    <xdr:row>56</xdr:row>
+                    <xdr:row>54</xdr:row>
                     <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7607,19 +7519,107 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1094" r:id="rId50" name="Check Box 70">
+            <control shapeId="1099" r:id="rId46" name="Check Box 75">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>175260</xdr:colOff>
-                    <xdr:row>54</xdr:row>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>137160</xdr:colOff>
-                    <xdr:row>54</xdr:row>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1100" r:id="rId47" name="Check Box 76">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1104" r:id="rId48" name="Check Box 80">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1108" r:id="rId49" name="Check Box 84">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1112" r:id="rId50" name="Check Box 88">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>175260</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>137160</xdr:colOff>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>182880</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7678,42 +7678,42 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7730,91 +7730,91 @@
     </row>
     <row r="19" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B34" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
